--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,31 +43,28 @@
     <t>evil</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
@@ -76,18 +73,18 @@
     <t>scary</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -106,10 +103,13 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
@@ -118,37 +118,46 @@
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>new</t>
+    <t>many</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
@@ -518,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,16 +617,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,10 +649,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -687,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7894736842105263</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,16 +867,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.64</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5925925925925926</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -987,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.5833333333333334</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.4242424242424243</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6382978723404256</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.3958333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6231884057971014</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.3888888888888889</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5897435897435898</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1205,31 +1214,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L15">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>17</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.2431693989071038</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1279,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>831</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1287,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4642857142857143</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1305,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.1473684210526316</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1337,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4642857142857143</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1355,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.04946996466431095</v>
+        <v>0.2331511839708561</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>269</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1387,87 +1396,63 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.2131147540983606</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K19">
-        <v>0.04367469879518072</v>
-      </c>
-      <c r="L19">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.04406779661016949</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0.24</v>
-      </c>
-      <c r="F20">
-        <v>0.76</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>282</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.03888888888888889</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1479,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>519</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.02922077922077922</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1505,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>598</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.02560819462227913</v>
+        <v>0.05</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1531,33 +1516,137 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>761</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.03614457831325301</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>24</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K23">
-        <v>0.02073732718894009</v>
-      </c>
-      <c r="L23">
+      <c r="K24">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <v>0.02304737516005122</v>
+      </c>
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>0.0207492795389049</v>
+      </c>
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="M23">
-        <v>36</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1700</v>
+      <c r="M27">
+        <v>37</v>
+      </c>
+      <c r="N27">
+        <v>0.97</v>
+      </c>
+      <c r="O27">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
